--- a/missing_keys.xlsx
+++ b/missing_keys.xlsx
@@ -397,519 +397,885 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>PO</v>
+      </c>
+      <c r="B1" t="str">
         <v>Key</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>Translate</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
+        <v>Version</v>
+      </c>
+      <c r="E1" t="str">
         <v>ToolRemark</v>
+      </c>
+      <c r="F1" t="str">
+        <v>__EMPTY</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>haopengli</v>
+      </c>
+      <c r="B2" t="str">
         <v>OpsEvents_Event_Title_bp03_1514118</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>已拥有</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E2" t="str">
         <v>表情包界面使用</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>haopengli</v>
+      </c>
+      <c r="B3" t="str">
         <v>OpsEvents_Event_Title_bp03_1514117</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <v>通过活动获得</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E3" t="str">
         <v>表情包界面使用</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>haopengli</v>
+      </c>
+      <c r="B4" t="str">
         <v>OpsEvents_Event_Title_bp03_1514116</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <v>通过商城获得</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E4" t="str">
         <v>表情包界面使用</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>haopengli</v>
+      </c>
+      <c r="B5" t="str">
         <v>OpsEvents_Event_Title_bp03_1514115</v>
       </c>
-      <c r="B5" t="str">
+      <c r="C5" t="str">
         <v>{0}天{1}小时{2}分钟</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E5" t="str">
         <v>表情包界面使用</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>haopengli</v>
+      </c>
+      <c r="B6" t="str">
         <v>OpsEvents_Event_Title_bp03_1514114</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
         <v>敬请期待</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E6" t="str">
         <v>表情包界面使用</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B7" t="str">
         <v>OpsEvents_SelfGame_266</v>
       </c>
-      <c r="B7" t="str">
+      <c r="C7" t="str">
         <v>测试用收集物buff</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="E7" t="str">
         <v>CN_only</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B8" t="str">
         <v>OpsEvents_SelfGame_265</v>
       </c>
-      <c r="B8" t="str">
+      <c r="C8" t="str">
         <v>测试用收集物buff</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="E8" t="str">
         <v>CN_only</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B9" t="str">
         <v>OpsEvents_SelfGame_260</v>
       </c>
-      <c r="B9" t="str">
+      <c r="C9" t="str">
         <v>发现{0}个橙色色品质的自练场故事</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="E9" t="str">
         <v>CN_only</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B10" t="str">
         <v>OpsEvents_SelfGame_257</v>
       </c>
-      <c r="B10" t="str">
+      <c r="C10" t="str">
         <v>勤练带来的武道能力！</v>
       </c>
-      <c r="C10" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D10" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E10" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B11" t="str">
         <v>OpsEvents_SelfGame_256</v>
       </c>
-      <c r="B11" t="str">
+      <c r="C11" t="str">
         <v>聚众的妙蛙花</v>
       </c>
-      <c r="C11" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D11" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E11" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="12" xml:space="preserve">
       <c r="A12" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B12" t="str">
         <v>OpsEvents_SelfGame_255</v>
       </c>
-      <c r="B12" t="str">
+      <c r="C12" t="str">
         <v>随风起舞的白蓬蓬</v>
       </c>
-      <c r="C12" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D12" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E12" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="13" xml:space="preserve">
       <c r="A13" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B13" t="str">
         <v>OpsEvents_SelfGame_254</v>
       </c>
-      <c r="B13" t="str">
+      <c r="C13" t="str">
         <v>甜冷美后的管理手段</v>
       </c>
-      <c r="C13" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D13" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E13" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="14" xml:space="preserve">
       <c r="A14" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B14" t="str">
         <v>OpsEvents_SelfGame_253</v>
       </c>
-      <c r="B14" t="str">
+      <c r="C14" t="str">
         <v>拉普拉斯的歌声</v>
       </c>
-      <c r="C14" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D14" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E14" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B15" t="str">
         <v>OpsEvents_SelfGame_252</v>
       </c>
-      <c r="B15" t="str">
+      <c r="C15" t="str">
         <v>好战的烈箭鹰</v>
       </c>
-      <c r="C15" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D15" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E15" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="16" xml:space="preserve">
       <c r="A16" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B16" t="str">
         <v>OpsEvents_SelfGame_251</v>
       </c>
-      <c r="B16" t="str">
+      <c r="C16" t="str">
         <v>忍者的修炼</v>
       </c>
-      <c r="C16" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D16" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E16" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B17" t="str">
         <v>OpsEvents_SelfGame_250</v>
       </c>
-      <c r="B17" t="str">
+      <c r="C17" t="str">
         <v>班基拉斯的领地意识</v>
       </c>
-      <c r="C17" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D17" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E17" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="18" xml:space="preserve">
       <c r="A18" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B18" t="str">
         <v>OpsEvents_SelfGame_249</v>
       </c>
-      <c r="B18" t="str">
+      <c r="C18" t="str">
         <v>预制灾难的守护者</v>
       </c>
-      <c r="C18" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D18" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E18" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
       <c r="A19" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B19" t="str">
         <v>OpsEvents_SelfGame_248</v>
       </c>
-      <c r="B19" t="str">
+      <c r="C19" t="str">
         <v>王牌的待遇！</v>
       </c>
-      <c r="C19" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D19" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E19" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="20" xml:space="preserve">
       <c r="A20" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B20" t="str">
         <v>OpsEvents_SelfGame_247</v>
       </c>
-      <c r="B20" t="str">
+      <c r="C20" t="str">
         <v>不善冲浪的可达鸭</v>
       </c>
-      <c r="C20" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D20" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E20" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="21" xml:space="preserve">
       <c r="A21" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B21" t="str">
         <v>OpsEvents_SelfGame_246</v>
       </c>
-      <c r="B21" t="str">
+      <c r="C21" t="str">
         <v>沙奈朵的问询</v>
       </c>
-      <c r="C21" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D21" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E21" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
       <c r="A22" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B22" t="str">
         <v>OpsEvents_SelfGame_245</v>
       </c>
-      <c r="B22" t="str">
+      <c r="C22" t="str">
         <v>月夜下的皮可西</v>
       </c>
-      <c r="C22" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D22" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E22" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="23" xml:space="preserve">
       <c r="A23" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B23" t="str">
         <v>OpsEvents_SelfGame_244</v>
       </c>
-      <c r="B23" t="str">
+      <c r="C23" t="str">
         <v>铝刚龙的烦恼</v>
       </c>
-      <c r="C23" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D23" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E23" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="24" xml:space="preserve">
       <c r="A24" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B24" t="str">
         <v>OpsEvents_SelfGame_243</v>
       </c>
-      <c r="B24" t="str">
+      <c r="C24" t="str">
         <v>伤心的黏美龙</v>
       </c>
-      <c r="C24" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D24" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E24" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
       <c r="A25" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B25" t="str">
         <v>OpsEvents_SelfGame_242</v>
       </c>
-      <c r="B25" t="str">
+      <c r="C25" t="str">
         <v>多龙梅西亚发射！</v>
       </c>
-      <c r="C25" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D25" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E25" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
       <c r="A26" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B26" t="str">
         <v>OpsEvents_SelfGame_241</v>
       </c>
-      <c r="B26" t="str">
+      <c r="C26" t="str">
         <v>吞下皮卡丘的古月鸟</v>
       </c>
-      <c r="C26" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D26" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E26" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="27" xml:space="preserve">
       <c r="A27" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B27" t="str">
         <v>OpsEvents_SelfGame_240</v>
       </c>
-      <c r="B27" t="str">
+      <c r="C27" t="str">
         <v>喜欢吃树果的卡比兽</v>
       </c>
-      <c r="C27" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D27" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E27" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="28" xml:space="preserve">
       <c r="A28" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B28" t="str">
         <v>OpsEvents_SelfGame_239</v>
       </c>
-      <c r="B28" t="str">
+      <c r="C28" t="str">
         <v>满月小事故</v>
       </c>
-      <c r="C28" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D28" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E28" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="29" xml:space="preserve">
       <c r="A29" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B29" t="str">
         <v>OpsEvents_SelfGame_238</v>
       </c>
-      <c r="B29" t="str">
+      <c r="C29" t="str">
         <v>丘与丘</v>
       </c>
-      <c r="C29" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D29" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E29" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="30" xml:space="preserve">
       <c r="A30" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B30" t="str">
         <v>OpsEvents_SelfGame_237</v>
       </c>
-      <c r="B30" t="str">
+      <c r="C30" t="str">
         <v>呆。呆？呆！</v>
       </c>
-      <c r="C30" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D30" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E30" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="31" xml:space="preserve">
       <c r="A31" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B31" t="str">
         <v>OpsEvents_SelfGame_236</v>
       </c>
-      <c r="B31" t="str">
+      <c r="C31" t="str">
         <v>谁是大力士？</v>
       </c>
-      <c r="C31" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D31" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E31" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="32" xml:space="preserve">
       <c r="A32" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B32" t="str">
         <v>OpsEvents_SelfGame_235</v>
       </c>
-      <c r="B32" t="str">
+      <c r="C32" t="str">
         <v>是甜竹竹！不是树果！</v>
       </c>
-      <c r="C32" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D32" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E32" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="33" xml:space="preserve">
       <c r="A33" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B33" t="str">
         <v>OpsEvents_SelfGame_234</v>
       </c>
-      <c r="B33" t="str">
+      <c r="C33" t="str">
         <v>骄傲的喷火龙</v>
       </c>
-      <c r="C33" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D33" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E33" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="34" xml:space="preserve">
       <c r="A34" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B34" t="str">
         <v>OpsEvents_SelfGame_233</v>
       </c>
-      <c r="B34" t="str">
+      <c r="C34" t="str">
         <v>一起宇宙探险</v>
       </c>
-      <c r="C34" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D34" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E34" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="35" xml:space="preserve">
       <c r="A35" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B35" t="str">
         <v>OpsEvents_SelfGame_232</v>
       </c>
-      <c r="B35" t="str">
+      <c r="C35" t="str">
         <v>最初的相遇</v>
       </c>
-      <c r="C35" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D35" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E35" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="36" xml:space="preserve">
       <c r="A36" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B36" t="str">
         <v>OpsEvents_SelfGame_231</v>
       </c>
-      <c r="B36" t="str">
+      <c r="C36" t="str">
         <v>城市英雄联盟</v>
       </c>
-      <c r="C36" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D36" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E36" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="37" xml:space="preserve">
       <c r="A37" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B37" t="str">
         <v>OpsEvents_SelfGame_230</v>
       </c>
-      <c r="B37" t="str">
+      <c r="C37" t="str">
         <v>无限的可能性</v>
       </c>
-      <c r="C37" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D37" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E37" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="38" xml:space="preserve">
       <c r="A38" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B38" t="str">
         <v>OpsEvents_SelfGame_229</v>
       </c>
-      <c r="B38" t="str">
+      <c r="C38" t="str">
         <v>最初的相遇</v>
       </c>
-      <c r="C38" t="str" xml:space="preserve">
-        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
-where：宝可梦自练场_x000d__x000d_
-what：宝可梦故事名字</v>
+      <c r="D38" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E38" t="str" xml:space="preserve">
+        <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
+where：宝可梦自练场_x000d__x000d_
+what：宝可梦故事名字</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="39" xml:space="preserve">
       <c r="A39" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B39" t="str">
         <v>OpsEvents_SelfGame_228</v>
       </c>
-      <c r="B39" t="str">
+      <c r="C39" t="str">
         <v>点击{0}播放</v>
       </c>
-      <c r="C39" t="str" xml:space="preserve">
+      <c r="D39" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E39" t="str" xml:space="preserve">
         <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
 where：宝可梦自练场_x000d__x000d_
 what：NX端视频播放提示</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B40" t="str">
         <v>System_SelfTraining_GameName</v>
       </c>
-      <c r="B40" t="str">
+      <c r="C40" t="str">
         <v>休闲主题训练区</v>
       </c>
-      <c r="C40" t="str">
+      <c r="D40" t="str">
+        <v>B03版本</v>
+      </c>
+      <c r="E40" t="str">
         <v>自练场玩法名称</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="41" xml:space="preserve">
       <c r="A41" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B41" t="str">
         <v>OpsEvents_Event_Tips_26536_001</v>
       </c>
-      <c r="B41" t="str">
+      <c r="C41" t="str">
         <v>{0}正处于努力修炼的状态，确认是否收回</v>
       </c>
-      <c r="C41" t="str" xml:space="preserve">
+      <c r="D41" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E41" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 T000_x000d_
 How: 宝可梦自练场_x000d_
@@ -917,15 +1283,24 @@
 What: 宝可梦自练场二次确认提示_x000d_
 </v>
       </c>
+      <c r="F41" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="42" xml:space="preserve">
       <c r="A42" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B42" t="str">
         <v>OpsSystem_Suit_Name_26341_001</v>
       </c>
-      <c r="B42" t="str">
+      <c r="C42" t="str">
         <v>英雄套装({可达鸭}):美瞳</v>
       </c>
-      <c r="C42" t="str" xml:space="preserve">
+      <c r="D42" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E42" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -943,15 +1318,24 @@
 设计SG链接：https://nskassets.shotgunstudio.com/page/5952?layout=AVATAR#Asset_22336_x000d_
 </v>
       </c>
+      <c r="F42" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="43" xml:space="preserve">
       <c r="A43" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B43" t="str">
         <v>OpsSystem_Suit_Name_26340_001</v>
       </c>
-      <c r="B43" t="str">
+      <c r="C43" t="str">
         <v>英雄套装(可达鸭):鞋子</v>
       </c>
-      <c r="C43" t="str" xml:space="preserve">
+      <c r="D43" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E43" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -971,15 +1355,24 @@
 设计SG链接：https://nskassets.shotgunstudio.com/page/5952?layout=AVATAR#Asset_22336_x000d_
 </v>
       </c>
+      <c r="F43" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="44" xml:space="preserve">
       <c r="A44" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B44" t="str">
         <v>OpsSystem_Suit_Name_26339_001</v>
       </c>
-      <c r="B44" t="str">
+      <c r="C44" t="str">
         <v>英雄套装(可达鸭):发饰</v>
       </c>
-      <c r="C44" t="str" xml:space="preserve">
+      <c r="D44" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E44" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -999,15 +1392,24 @@
 设计SG链接：https://nskassets.shotgunstudio.com/page/5952?layout=AVATAR#Asset_22336_x000d_
 </v>
       </c>
+      <c r="F44" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="45" xml:space="preserve">
       <c r="A45" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B45" t="str">
         <v>OpsSystem_Suit_Name_26338_001</v>
       </c>
-      <c r="B45" t="str">
+      <c r="C45" t="str">
         <v>英雄套装(可达鸭):组合</v>
       </c>
-      <c r="C45" t="str" xml:space="preserve">
+      <c r="D45" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E45" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -1025,15 +1427,24 @@
 设计SG链接：https://nskassets.shotgunstudio.com/page/5952?layout=AVATAR#Asset_22336_x000d_
 </v>
       </c>
+      <c r="F45" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="46" xml:space="preserve">
       <c r="A46" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B46" t="str">
         <v>OpsSystem_Suit_Name_26337_001</v>
       </c>
-      <c r="B46" t="str">
+      <c r="C46" t="str">
         <v>英雄套装({可达鸭}):发饰</v>
       </c>
-      <c r="C46" t="str" xml:space="preserve">
+      <c r="D46" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E46" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -1051,15 +1462,24 @@
 设计SG链接：https://nskassets.shotgunstudio.com/page/5952?layout=AVATAR#Asset_22336_x000d_
 </v>
       </c>
+      <c r="F46" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="47" xml:space="preserve">
       <c r="A47" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B47" t="str">
         <v>OpsSystem_Suit_Name_26336_001</v>
       </c>
-      <c r="B47" t="str">
+      <c r="C47" t="str">
         <v>英雄套装({可达鸭})</v>
       </c>
-      <c r="C47" t="str" xml:space="preserve">
+      <c r="D47" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E47" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -1077,15 +1497,24 @@
 设计SG链接：https://nskassets.shotgunstudio.com/page/5952?layout=AVATAR#Asset_22336_x000d_
 </v>
       </c>
+      <c r="F47" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="48" xml:space="preserve">
       <c r="A48" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B48" t="str">
         <v>OpsSystem_Avatar_Name_26335_001</v>
       </c>
-      <c r="B48" t="str">
+      <c r="C48" t="str">
         <v>随英雄风格{可达鸭}}获得</v>
       </c>
-      <c r="C48" t="str" xml:space="preserve">
+      <c r="D48" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E48" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -1099,132 +1528,222 @@
 可见时间：2025/05月左右-BP05_x000d_
 </v>
       </c>
+      <c r="F48" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="49" xml:space="preserve">
       <c r="A49" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B49" t="str">
         <v>OpsEvents_SelfGame_220</v>
       </c>
-      <c r="B49" t="str">
+      <c r="C49" t="str">
         <v>地面</v>
       </c>
-      <c r="C49" t="str" xml:space="preserve">
+      <c r="D49" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E49" t="str" xml:space="preserve">
         <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
 where：宝可梦自练场_x000d__x000d_
 what：昵称</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="50" xml:space="preserve">
       <c r="A50" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B50" t="str">
         <v>OpsEvents_SelfGame_227</v>
       </c>
-      <c r="B50" t="str">
+      <c r="C50" t="str">
         <v>训练专用得分点</v>
       </c>
-      <c r="C50" t="str" xml:space="preserve">
+      <c r="D50" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E50" t="str" xml:space="preserve">
         <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
 where：宝可梦自练场_x000d__x000d_
 what：昵称</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="51" xml:space="preserve">
       <c r="A51" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B51" t="str">
         <v>OpsEvents_SelfGame_225</v>
       </c>
-      <c r="B51" t="str">
+      <c r="C51" t="str">
         <v>中级训练木桩</v>
       </c>
-      <c r="C51" t="str" xml:space="preserve">
+      <c r="D51" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E51" t="str" xml:space="preserve">
         <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
 where：宝可梦自练场_x000d__x000d_
 what：昵称</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="52" xml:space="preserve">
       <c r="A52" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B52" t="str">
         <v>OpsEvents_SelfGame_226</v>
       </c>
-      <c r="B52" t="str">
+      <c r="C52" t="str">
         <v>高级训练木桩</v>
       </c>
-      <c r="C52" t="str" xml:space="preserve">
+      <c r="D52" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E52" t="str" xml:space="preserve">
         <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
 where：宝可梦自练场_x000d__x000d_
 what：昵称</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="53" xml:space="preserve">
       <c r="A53" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B53" t="str">
         <v>OpsEvents_SelfGame_219</v>
       </c>
-      <c r="B53" t="str">
+      <c r="C53" t="str">
         <v>毒</v>
       </c>
-      <c r="C53" t="str" xml:space="preserve">
+      <c r="D53" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E53" t="str" xml:space="preserve">
         <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
 where：宝可梦自练场_x000d__x000d_
 what：昵称</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="54" xml:space="preserve">
       <c r="A54" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B54" t="str">
         <v>OpsEvents_SelfGame_223</v>
       </c>
-      <c r="B54" t="str">
+      <c r="C54" t="str">
         <v>钢</v>
       </c>
-      <c r="C54" t="str" xml:space="preserve">
+      <c r="D54" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E54" t="str" xml:space="preserve">
         <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
 where：宝可梦自练场_x000d__x000d_
 what：昵称</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="55" xml:space="preserve">
       <c r="A55" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B55" t="str">
         <v>OpsEvents_SelfGame_221</v>
       </c>
-      <c r="B55" t="str">
+      <c r="C55" t="str">
         <v>虫</v>
       </c>
-      <c r="C55" t="str" xml:space="preserve">
+      <c r="D55" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E55" t="str" xml:space="preserve">
         <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
 where：宝可梦自练场_x000d__x000d_
 what：昵称</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="56" xml:space="preserve">
       <c r="A56" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B56" t="str">
         <v>OpsEvents_SelfGame_222</v>
       </c>
-      <c r="B56" t="str">
+      <c r="C56" t="str">
         <v>岩石</v>
       </c>
-      <c r="C56" t="str" xml:space="preserve">
+      <c r="D56" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E56" t="str" xml:space="preserve">
         <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
 where：宝可梦自练场_x000d__x000d_
 what：昵称</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="57" xml:space="preserve">
       <c r="A57" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B57" t="str">
         <v>OpsEvents_SelfGame_224</v>
       </c>
-      <c r="B57" t="str">
+      <c r="C57" t="str">
         <v>初级训练木桩</v>
       </c>
-      <c r="C57" t="str" xml:space="preserve">
+      <c r="D57" t="str">
+        <v>B03</v>
+      </c>
+      <c r="E57" t="str" xml:space="preserve">
         <v xml:space="preserve">how:宝可梦自练场玩法_x000d__x000d_
 where：宝可梦自练场_x000d__x000d_
 what：昵称</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Ops</v>
       </c>
     </row>
     <row r="58" xml:space="preserve">
       <c r="A58" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B58" t="str">
         <v>OpsEvents_Event_Tab_26147_001</v>
       </c>
-      <c r="B58" t="str">
+      <c r="C58" t="str">
         <v>查看保护卡</v>
       </c>
-      <c r="C58" t="str" xml:space="preserve">
+      <c r="D58" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E58" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 T【【运营】【NX】组队开黑不掉星-前端（手机+NX）】_x000d_
 https://tapd.woa.com/tapd_fe/20403392/task/detail/1020403392075549932_x000d_
@@ -1233,15 +1752,24 @@
 What: NX版本在组队房间查看页签_x000d_
 </v>
       </c>
+      <c r="F58" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="59" xml:space="preserve">
       <c r="A59" t="str">
+        <v>vanyawan</v>
+      </c>
+      <c r="B59" t="str">
         <v>OpsEvents_Event_Tab_26146_001</v>
       </c>
-      <c r="B59" t="str">
+      <c r="C59" t="str">
         <v>房间权限</v>
       </c>
-      <c r="C59" t="str" xml:space="preserve">
+      <c r="D59" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E59" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 T【【运营】【NX】组队开黑不掉星-前端（手机+NX）】_x000d_
 https://tapd.woa.com/tapd_fe/20403392/task/detail/1020403392075549932_x000d_
@@ -1250,15 +1778,24 @@
 What: 组队页面权限管理_x000d_
 </v>
       </c>
+      <c r="F59" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="60" xml:space="preserve">
       <c r="A60" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B60" t="str">
         <v>Trainer_Suit_Name_25769_001</v>
       </c>
-      <c r="B60" t="str">
+      <c r="C60" t="str">
         <v>妙蛙种子套装:鞋子</v>
       </c>
-      <c r="C60" t="str" xml:space="preserve">
+      <c r="D60" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E60" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -1276,15 +1813,24 @@
 设计SG链接：https://nskassets.shotgunstudio.com/page/5952#Asset_3531_x000d_
 </v>
       </c>
+      <c r="F60" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="61" xml:space="preserve">
       <c r="A61" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B61" t="str">
         <v>Trainer_Suit_Name_25768_001</v>
       </c>
-      <c r="B61" t="str">
+      <c r="C61" t="str">
         <v>妙蛙种子套装:背包</v>
       </c>
-      <c r="C61" t="str" xml:space="preserve">
+      <c r="D61" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E61" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -1302,15 +1848,24 @@
 设计SG链接：https://nskassets.shotgunstudio.com/page/5952#Asset_3531_x000d_
 </v>
       </c>
+      <c r="F61" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="62" xml:space="preserve">
       <c r="A62" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B62" t="str">
         <v>Trainer_Suit_Name_25767_001</v>
       </c>
-      <c r="B62" t="str">
+      <c r="C62" t="str">
         <v>妙蛙种子套装:组合</v>
       </c>
-      <c r="C62" t="str" xml:space="preserve">
+      <c r="D62" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E62" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -1328,15 +1883,24 @@
 设计SG链接：https://nskassets.shotgunstudio.com/page/5952#Asset_3531_x000d_
 </v>
       </c>
+      <c r="F62" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="63" xml:space="preserve">
       <c r="A63" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B63" t="str">
         <v>Trainer_Suit_Name_25766_001</v>
       </c>
-      <c r="B63" t="str">
+      <c r="C63" t="str">
         <v>妙蛙种子套装:发饰</v>
       </c>
-      <c r="C63" t="str" xml:space="preserve">
+      <c r="D63" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E63" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -1354,15 +1918,24 @@
 设计SG链接：https://nskassets.shotgunstudio.com/page/5952#Asset_3531_x000d_
 </v>
       </c>
+      <c r="F63" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="64" xml:space="preserve">
       <c r="A64" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B64" t="str">
         <v>Trainer_Suit_Name_25765_001</v>
       </c>
-      <c r="B64" t="str">
+      <c r="C64" t="str">
         <v>妙蛙种子套装</v>
       </c>
-      <c r="C64" t="str" xml:space="preserve">
+      <c r="D64" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E64" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -1380,15 +1953,24 @@
 设计SG链接：https://nskassets.shotgunstudio.com/page/5952#Asset_3531_x000d_
 </v>
       </c>
+      <c r="F64" t="str">
+        <v>Ops</v>
+      </c>
     </row>
     <row r="65" xml:space="preserve">
       <c r="A65" t="str">
+        <v>doriscyang</v>
+      </c>
+      <c r="B65" t="str">
         <v>Trainer_Suit_Name_25759_001</v>
       </c>
-      <c r="B65" t="str">
+      <c r="C65" t="str">
         <v>排位好手套装(水紫):鞋子</v>
       </c>
-      <c r="C65" t="str" xml:space="preserve">
+      <c r="D65" t="str">
+        <v>RB03</v>
+      </c>
+      <c r="E65" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 B6177_x000d_
 How: B6177_x000d_
@@ -1406,10 +1988,13 @@
 设计SG链接：https://nskassets.shotgunstudio.com/page/5952#Asset_18951_x000d_
 </v>
       </c>
+      <c r="F65" t="str">
+        <v>Ops</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C65"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F65"/>
   </ignoredErrors>
 </worksheet>
 </file>